--- a/modelisator/Gestion de projet/2015_06_25 [Modelisator] Step Finale SI73/2015_05_28 [Modelisator] Todo list.xlsx
+++ b/modelisator/Gestion de projet/2015_06_25 [Modelisator] Step Finale SI73/2015_05_28 [Modelisator] Todo list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
   <si>
     <t>TO-DO list</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Responsabilités </t>
   </si>
   <si>
-    <t xml:space="preserve">Budget / Ressources </t>
-  </si>
-  <si>
-    <t>Analyse des ressource et de besoin pour réaliser le projet</t>
-  </si>
-  <si>
     <t>rapport réunion</t>
   </si>
   <si>
@@ -78,15 +72,9 @@
     <t>Transfert du livrable</t>
   </si>
   <si>
-    <t>recipicé de livraison</t>
-  </si>
-  <si>
     <t>doc</t>
   </si>
   <si>
-    <t xml:space="preserve">Planning </t>
-  </si>
-  <si>
     <t>légende</t>
   </si>
   <si>
@@ -99,9 +87,6 @@
     <t>O</t>
   </si>
   <si>
-    <t>tableur budget</t>
-  </si>
-  <si>
     <t>&gt;50%</t>
   </si>
   <si>
@@ -114,9 +99,6 @@
     <t>retour en entreprise</t>
   </si>
   <si>
-    <t>Modification CdC</t>
-  </si>
-  <si>
     <t>Suivi et pilotage</t>
   </si>
   <si>
@@ -126,9 +108,6 @@
     <t>GANTT</t>
   </si>
   <si>
-    <t>PERT</t>
-  </si>
-  <si>
     <t>Total Jour/Homme:</t>
   </si>
   <si>
@@ -186,15 +165,6 @@
     <t>Test d'intégration et test unitaire</t>
   </si>
   <si>
-    <t>Rapport + PPT</t>
-  </si>
-  <si>
-    <t>Analyse personnel sur le déroullement du projet (objectif respect, point +/ -, planning respecter ?)</t>
-  </si>
-  <si>
-    <t>Rapport fin projet Personnel</t>
-  </si>
-  <si>
     <t>Rapport fin de projet Globale</t>
   </si>
   <si>
@@ -207,9 +177,6 @@
     <t>Referent</t>
   </si>
   <si>
-    <t>revision 3  cdc</t>
-  </si>
-  <si>
     <t>Choisir un Logo</t>
   </si>
   <si>
@@ -246,9 +213,6 @@
     <t>Mise en production</t>
   </si>
   <si>
-    <t>Assistance et maintenance</t>
-  </si>
-  <si>
     <t>Accompagnement</t>
   </si>
   <si>
@@ -270,9 +234,6 @@
     <t>Liste des contraintes</t>
   </si>
   <si>
-    <t>TODO list on 28/05/2015</t>
-  </si>
-  <si>
     <t>CQQCOQP</t>
   </si>
   <si>
@@ -325,6 +286,21 @@
   </si>
   <si>
     <t>Conception</t>
+  </si>
+  <si>
+    <t>O + Q</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>C + Q</t>
+  </si>
+  <si>
+    <t>Récépissé de livraison</t>
+  </si>
+  <si>
+    <t>TODO list on 25/06/2015</t>
   </si>
 </sst>
 </file>
@@ -428,7 +404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -645,17 +621,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -763,7 +728,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -846,9 +811,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -870,9 +832,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -897,16 +856,16 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -924,7 +883,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -939,7 +898,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -951,35 +910,38 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1014,6 +976,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1028,11 +991,14 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$40:$H$40</c:f>
+              <c:f>Feuil1!$B$35:$H$35</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Assistance et maintenance</c:v>
+                  <c:v>Mise en production</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Réaffectation des ressources sur d'autre projet</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>légende</c:v>
@@ -1047,7 +1013,7 @@
                   <c:v>100%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1055,9 +1021,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$I$2:$I$39</c:f>
+              <c:f>Feuil1!$I$2:$I$34</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="1">
                   <c:v>Etat</c:v>
                 </c:pt>
@@ -1086,81 +1052,66 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>2,708333333</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1,068965517</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
@@ -1168,7 +1119,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$I$40</c:f>
+              <c:f>Feuil1!$I$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1225,6 +1176,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1249,6 +1201,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1263,11 +1216,14 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$40:$H$40</c:f>
+              <c:f>Feuil1!$B$35:$H$35</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Assistance et maintenance</c:v>
+                  <c:v>Mise en production</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Réaffectation des ressources sur d'autre projet</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>légende</c:v>
@@ -1282,7 +1238,7 @@
                   <c:v>100%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1290,9 +1246,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$I$2:$I$39</c:f>
+              <c:f>Feuil1!$I$2:$I$34</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="1">
                   <c:v>Etat</c:v>
                 </c:pt>
@@ -1321,81 +1277,66 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>2,708333333</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1,068965517</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
@@ -1403,7 +1344,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$I$40</c:f>
+              <c:f>Feuil1!$I$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1460,6 +1401,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1484,6 +1426,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1498,11 +1441,14 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$40:$H$40</c:f>
+              <c:f>Feuil1!$B$35:$H$35</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Assistance et maintenance</c:v>
+                  <c:v>Mise en production</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Réaffectation des ressources sur d'autre projet</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>légende</c:v>
@@ -1517,7 +1463,7 @@
                   <c:v>100%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1525,9 +1471,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$I$2:$I$39</c:f>
+              <c:f>Feuil1!$I$2:$I$34</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="1">
                   <c:v>Etat</c:v>
                 </c:pt>
@@ -1556,81 +1502,66 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>2,708333333</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1,068965517</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
@@ -1638,7 +1569,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$I$40</c:f>
+              <c:f>Feuil1!$I$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1695,6 +1626,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1719,6 +1651,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1733,11 +1666,14 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$40:$H$40</c:f>
+              <c:f>Feuil1!$B$35:$H$35</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Assistance et maintenance</c:v>
+                  <c:v>Mise en production</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Réaffectation des ressources sur d'autre projet</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>légende</c:v>
@@ -1752,7 +1688,7 @@
                   <c:v>100%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1760,9 +1696,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$I$2:$I$39</c:f>
+              <c:f>Feuil1!$I$2:$I$34</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="1">
                   <c:v>Etat</c:v>
                 </c:pt>
@@ -1791,81 +1727,66 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>2,708333333</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1,068965517</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
@@ -1873,7 +1794,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$I$40</c:f>
+              <c:f>Feuil1!$I$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1930,6 +1851,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1954,6 +1876,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1968,11 +1891,14 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$40:$H$40</c:f>
+              <c:f>Feuil1!$B$35:$H$35</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Assistance et maintenance</c:v>
+                  <c:v>Mise en production</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Réaffectation des ressources sur d'autre projet</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>légende</c:v>
@@ -1987,7 +1913,7 @@
                   <c:v>100%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1995,9 +1921,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$I$2:$I$39</c:f>
+              <c:f>Feuil1!$I$2:$I$34</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="1">
                   <c:v>Etat</c:v>
                 </c:pt>
@@ -2026,81 +1952,66 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>2,708333333</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1,068965517</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
@@ -2108,7 +2019,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$I$40</c:f>
+              <c:f>Feuil1!$I$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2165,6 +2076,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2189,6 +2101,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2203,11 +2116,14 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$40:$H$40</c:f>
+              <c:f>Feuil1!$B$35:$H$35</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Assistance et maintenance</c:v>
+                  <c:v>Mise en production</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Réaffectation des ressources sur d'autre projet</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>légende</c:v>
@@ -2222,7 +2138,7 @@
                   <c:v>100%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2230,9 +2146,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$I$2:$I$39</c:f>
+              <c:f>Feuil1!$I$2:$I$34</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="1">
                   <c:v>Etat</c:v>
                 </c:pt>
@@ -2261,81 +2177,66 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>2,708333333</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1,068965517</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
@@ -2343,7 +2244,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$I$40</c:f>
+              <c:f>Feuil1!$I$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2400,6 +2301,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2413,7 +2315,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2424,7 +2326,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2435,7 +2337,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2446,7 +2348,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2457,7 +2359,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2468,7 +2370,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2479,7 +2381,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9303712" cy="6080606"/>
+    <xdr:ext cx="9302238" cy="6083710"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -2506,7 +2408,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9303712" cy="6080606"/>
+    <xdr:ext cx="9302238" cy="6083710"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -2533,7 +2435,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9303712" cy="6080606"/>
+    <xdr:ext cx="9302238" cy="6083710"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -2560,7 +2462,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9303712" cy="6080606"/>
+    <xdr:ext cx="9302238" cy="6083710"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -2587,7 +2489,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9303712" cy="6080606"/>
+    <xdr:ext cx="9302238" cy="6083710"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -2614,7 +2516,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9303712" cy="6080606"/>
+    <xdr:ext cx="9302238" cy="6083710"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -2924,23 +2826,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -2961,16 +2863,16 @@
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
+      <c r="B2" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="56"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
@@ -2979,28 +2881,28 @@
     <row r="3" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="24" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E3" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>46</v>
-      </c>
       <c r="H3" s="25" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -3009,26 +2911,26 @@
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="67" t="s">
-        <v>71</v>
+      <c r="B4" s="65" t="s">
+        <v>60</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G4" s="16">
         <v>42145</v>
       </c>
-      <c r="H4" s="61">
+      <c r="H4" s="59">
         <v>2</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="41">
         <v>3</v>
       </c>
       <c r="J4" s="3"/>
@@ -3038,21 +2940,21 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="66"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="10" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G5" s="12">
         <v>42145</v>
       </c>
-      <c r="H5" s="62"/>
+      <c r="H5" s="60"/>
       <c r="I5" s="17">
         <v>3</v>
       </c>
@@ -3063,21 +2965,21 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="66"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G6" s="12">
         <v>42145</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="38">
         <v>0.5</v>
       </c>
       <c r="I6" s="17">
@@ -3090,7 +2992,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="66"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="10" t="s">
         <v>0</v>
       </c>
@@ -3099,12 +3001,12 @@
         <v>3</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="G7" s="12">
         <v>42145</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="39">
         <v>0.5</v>
       </c>
       <c r="I7" s="17">
@@ -3117,23 +3019,23 @@
     </row>
     <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="68"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="10" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G8" s="12">
         <v>42152</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="39">
         <v>0.5</v>
       </c>
       <c r="I8" s="17">
@@ -3146,23 +3048,23 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="69" t="s">
-        <v>72</v>
+      <c r="B9" s="67" t="s">
+        <v>61</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G9" s="12">
         <v>42152</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="39">
         <v>0.5</v>
       </c>
       <c r="I9" s="17">
@@ -3173,23 +3075,23 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="66"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="10" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G10" s="12">
         <v>42152</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="33">
         <v>0.5</v>
       </c>
       <c r="I10" s="17">
@@ -3202,21 +3104,21 @@
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="66"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="10" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="11" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G11" s="12">
         <v>42152</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="33">
         <v>0.5</v>
       </c>
       <c r="I11" s="17">
@@ -3229,25 +3131,25 @@
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="66"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="10" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G12" s="12">
         <v>42152</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="39">
         <v>0.5</v>
       </c>
       <c r="I12" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -3256,27 +3158,27 @@
     </row>
     <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="66"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="10" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G13" s="12">
         <v>42152</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="30">
         <v>0.5</v>
       </c>
       <c r="I13" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -3285,25 +3187,25 @@
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="66"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="10" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G14" s="12"/>
-      <c r="H14" s="31">
+      <c r="H14" s="30">
         <v>0.5</v>
       </c>
       <c r="I14" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -3312,23 +3214,23 @@
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="68"/>
+      <c r="B15" s="66"/>
       <c r="C15" s="10" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G15" s="12">
         <v>42152</v>
       </c>
-      <c r="H15" s="41">
+      <c r="H15" s="39">
         <v>0.5</v>
       </c>
       <c r="I15" s="17">
@@ -3339,29 +3241,29 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="66" t="s">
-        <v>100</v>
+      <c r="B16" s="64" t="s">
+        <v>87</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G16" s="12"/>
-      <c r="H16" s="31">
+      <c r="H16" s="30">
         <v>1</v>
       </c>
       <c r="I16" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -3370,52 +3272,52 @@
     </row>
     <row r="17" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="66"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="G17" s="12"/>
-      <c r="H17" s="31">
+      <c r="H17" s="30">
         <v>0.5</v>
       </c>
       <c r="I17" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="70" t="s">
-        <v>78</v>
+      <c r="B18" s="68" t="s">
+        <v>66</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="G18" s="12"/>
-      <c r="H18" s="31">
-        <v>0.5</v>
+      <c r="H18" s="30">
+        <v>1</v>
       </c>
       <c r="I18" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -3424,124 +3326,134 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="28"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="D19" s="8"/>
       <c r="E19" s="11" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="G19" s="12"/>
-      <c r="H19" s="31">
-        <v>1</v>
+      <c r="H19" s="30">
+        <v>0.5</v>
       </c>
       <c r="I19" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="71"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="10" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G20" s="12"/>
-      <c r="H20" s="31">
-        <v>0.5</v>
+      <c r="H20" s="30">
+        <v>1</v>
       </c>
       <c r="I20" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="71"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="E21" s="11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G21" s="12"/>
-      <c r="H21" s="31">
-        <v>1</v>
+      <c r="H21" s="30">
+        <v>1.5</v>
       </c>
       <c r="I21" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="71"/>
+      <c r="B22" s="53" t="s">
+        <v>67</v>
+      </c>
       <c r="C22" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="E22" s="11" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G22" s="12"/>
-      <c r="H22" s="31">
-        <v>2</v>
+      <c r="H22" s="30">
+        <v>15</v>
       </c>
       <c r="I22" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="71"/>
+      <c r="B23" s="52" t="s">
+        <v>65</v>
+      </c>
       <c r="C23" s="10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="G23" s="12"/>
-      <c r="H23" s="31">
-        <v>0.5</v>
+      <c r="H23" s="30">
+        <v>4</v>
       </c>
       <c r="I23" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -3550,25 +3462,25 @@
     </row>
     <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="72"/>
+      <c r="B24" s="67" t="s">
+        <v>64</v>
+      </c>
       <c r="C24" s="10" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>9</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E24" s="11"/>
       <c r="F24" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G24" s="12"/>
-      <c r="H24" s="31">
-        <v>1.5</v>
+      <c r="H24" s="30">
+        <v>1</v>
       </c>
       <c r="I24" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -3577,78 +3489,80 @@
     </row>
     <row r="25" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="55" t="s">
-        <v>79</v>
-      </c>
+      <c r="B25" s="66"/>
       <c r="C25" s="10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G25" s="12"/>
-      <c r="H25" s="31">
-        <v>15</v>
+      <c r="H25" s="30">
+        <v>2</v>
       </c>
       <c r="I25" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="54" t="s">
-        <v>77</v>
+      <c r="B26" s="51" t="s">
+        <v>63</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G26" s="12"/>
-      <c r="H26" s="31">
-        <v>4</v>
+      <c r="H26" s="30">
+        <v>3</v>
       </c>
       <c r="I26" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
-      <c r="B27" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="11"/>
+      <c r="B27" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="F27" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G27" s="12"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="17">
+      <c r="H27" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="20">
         <v>0</v>
       </c>
       <c r="J27" s="3"/>
@@ -3656,45 +3570,47 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="17">
-        <v>0</v>
+      <c r="B28" s="71"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="58"/>
+      <c r="H28" s="32">
+        <f>SUM(H4:H27)</f>
+        <v>38</v>
+      </c>
+      <c r="I28" s="34">
+        <f>(SUM(I4:I27)/(COUNT(I4:I27)*3))*3</f>
+        <v>2.7083333333333335</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="9" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="17">
+      <c r="H29" s="29"/>
+      <c r="I29" s="21">
         <v>0</v>
       </c>
       <c r="J29" s="3"/>
@@ -3702,109 +3618,89 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="31">
-        <v>2</v>
-      </c>
-      <c r="I30" s="17">
-        <v>0</v>
+      <c r="B30" s="3"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="22">
+        <v>1</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="31">
-        <v>3</v>
-      </c>
-      <c r="I31" s="17">
-        <v>0</v>
+      <c r="B31" s="3"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="22">
+        <v>2</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="I32" s="20">
-        <v>0</v>
+      <c r="B32" s="3"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="42">
+        <v>1</v>
+      </c>
+      <c r="H32" s="42"/>
+      <c r="I32" s="22">
+        <v>3</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
-      <c r="B33" s="42" t="s">
-        <v>74</v>
-      </c>
+      <c r="B33" s="3"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" s="60"/>
-      <c r="H33" s="33">
-        <f>SUM(H4:H32)</f>
-        <v>40</v>
-      </c>
-      <c r="I33" s="35">
-        <f>(SUM(I4:I32)/(COUNT(I4:I32)*3))*3</f>
-        <v>1.0689655172413794</v>
-      </c>
+      <c r="D33" s="63"/>
+      <c r="E33" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="46"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -3814,22 +3710,12 @@
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" s="30"/>
-      <c r="I34" s="21">
-        <v>0</v>
-      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="44"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -3839,20 +3725,12 @@
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="22">
-        <v>1</v>
-      </c>
+      <c r="I35" s="44"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -3862,20 +3740,12 @@
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" s="5"/>
-      <c r="I36" s="22">
-        <v>2</v>
-      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="7"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -3885,39 +3755,27 @@
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="F37" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="G37" s="44">
-        <v>1</v>
-      </c>
-      <c r="H37" s="44"/>
-      <c r="I37" s="22">
-        <v>3</v>
-      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="7"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="48"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="7"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -3927,12 +3785,12 @@
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="46"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="7"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -3942,12 +3800,12 @@
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="46"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="7"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -3968,7 +3826,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="6"/>
@@ -3989,7 +3847,7 @@
       <c r="C43" s="6"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
+      <c r="F43" s="45"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="7"/>
@@ -4064,7 +3922,7 @@
       <c r="C48" s="6"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="47"/>
+      <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="7"/>
@@ -4090,112 +3948,37 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
+      <c r="I50" s="4"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
+      <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
+      <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
+      <c r="I53" s="4"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
+      <c r="I54" s="4"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
       <c r="I55" s="4"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I56" s="4"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I57" s="4"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I58" s="4"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I59" s="4"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I60" s="4"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I61" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F28:G28"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="D29:D33"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B9:B15"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4223,7 +4006,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I34:I37 I4:I6 I16:I32 I8:I13</xm:sqref>
+          <xm:sqref>I29:I32 I4:I6 I16:I27 I8:I13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="6" id="{D6A814B7-A3D4-45CD-891D-A36459736B0D}">
@@ -4246,7 +4029,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I33</xm:sqref>
+          <xm:sqref>I28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="5" id="{EB050179-070D-4140-B049-D0ED05FE6EE2}">
